--- a/data_year/zb/住宿和餐饮业/限额以上住宿业企业主要财务指标/按登记注册类型和行业分限额以上住宿业企业营业收入.xlsx
+++ b/data_year/zb/住宿和餐饮业/限额以上住宿业企业主要财务指标/按登记注册类型和行业分限额以上住宿业企业营业收入.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AL15"/>
+  <dimension ref="A1:AL13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -623,1579 +623,1355 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>50.46734</v>
+        <v>379.9</v>
       </c>
       <c r="C2" t="n">
-        <v>31.12226</v>
+        <v>36.2</v>
       </c>
       <c r="D2" t="n">
-        <v>71.59095000000001</v>
+        <v>103.8</v>
       </c>
       <c r="E2" t="n">
-        <v>1155.44681</v>
+        <v>2813.96526</v>
       </c>
       <c r="F2" t="n">
-        <v>4.81771</v>
+        <v>37</v>
       </c>
       <c r="G2" t="n">
-        <v>6.4613</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
+        <v>47.2</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="n">
-        <v>198.3457</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
+        <v>697.6</v>
+      </c>
+      <c r="J2" t="inlineStr"/>
       <c r="K2" t="n">
-        <v>1.26909</v>
+        <v>1.9</v>
       </c>
       <c r="L2" t="n">
-        <v>841.4986</v>
+        <v>2272.4</v>
       </c>
       <c r="M2" t="n">
-        <v>4.48426</v>
+        <v>3.4</v>
       </c>
       <c r="N2" t="n">
-        <v>325.94816</v>
+        <v>555.3</v>
       </c>
       <c r="O2" t="n">
-        <v>21.86233</v>
+        <v>31.5</v>
       </c>
       <c r="P2" t="n">
-        <v>10.00998</v>
+        <v>5.8</v>
       </c>
       <c r="Q2" t="n">
-        <v>128.36609</v>
+        <v>221.1</v>
       </c>
       <c r="R2" t="n">
-        <v>1.30061</v>
+        <v>4.8</v>
       </c>
       <c r="S2" t="n">
-        <v>24.35227</v>
+        <v>76.40000000000001</v>
       </c>
       <c r="T2" t="n">
-        <v>1098.51817</v>
+        <v>2386.9</v>
       </c>
       <c r="U2" t="n">
-        <v>220.20803</v>
+        <v>729.2</v>
       </c>
       <c r="V2" t="inlineStr"/>
       <c r="W2" t="n">
-        <v>45.30541</v>
+        <v>42</v>
       </c>
       <c r="X2" t="n">
-        <v>126.33715</v>
+        <v>188</v>
       </c>
       <c r="Y2" t="n">
-        <v>185.58212</v>
+        <v>320.4</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.95682</v>
+        <v>5.3</v>
       </c>
       <c r="AA2" t="n">
-        <v>12.98274</v>
+        <v>85.09999999999999</v>
       </c>
       <c r="AB2" t="n">
-        <v>158.55039</v>
+        <v>737.3</v>
       </c>
       <c r="AC2" t="n">
-        <v>5.85911</v>
+        <v>33</v>
       </c>
       <c r="AD2" t="n">
-        <v>114.08598</v>
+        <v>518.9</v>
       </c>
       <c r="AE2" t="n">
-        <v>27.99741</v>
+        <v>143.2</v>
       </c>
       <c r="AF2" t="n">
-        <v>10.60789</v>
+        <v>42.2</v>
       </c>
       <c r="AG2" t="n">
-        <v>16.96958</v>
+        <v>13.4</v>
       </c>
       <c r="AH2" t="n">
-        <v>14.70582</v>
+        <v>21.8</v>
       </c>
       <c r="AI2" t="n">
-        <v>49.32948</v>
+        <v>103.9</v>
       </c>
       <c r="AJ2" t="n">
-        <v>50.96943</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="AK2" t="n">
-        <v>1.20625</v>
+        <v>2.3</v>
       </c>
       <c r="AL2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>268.5012</v>
+        <v>440.8539</v>
       </c>
       <c r="C3" t="n">
-        <v>37.8859</v>
+        <v>35.2311</v>
       </c>
       <c r="D3" t="n">
-        <v>114.9253</v>
+        <v>109.2423</v>
       </c>
       <c r="E3" t="n">
-        <v>2266.512</v>
+        <v>3265.4855</v>
       </c>
       <c r="F3" t="n">
-        <v>20.277</v>
+        <v>94.4704</v>
       </c>
       <c r="G3" t="n">
-        <v>32.9897</v>
-      </c>
-      <c r="H3" t="inlineStr"/>
+        <v>56.177</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1.1143</v>
+      </c>
       <c r="I3" t="n">
-        <v>489.0817</v>
-      </c>
-      <c r="J3" t="inlineStr"/>
+        <v>899.681</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.6422</v>
+      </c>
       <c r="K3" t="n">
-        <v>2.3871</v>
+        <v>2.355</v>
       </c>
       <c r="L3" t="n">
-        <v>1768.8012</v>
+        <v>2671.5464</v>
       </c>
       <c r="M3" t="n">
-        <v>2.616</v>
+        <v>2.5925</v>
       </c>
       <c r="N3" t="n">
-        <v>504.8444</v>
+        <v>602.6953</v>
       </c>
       <c r="O3" t="n">
-        <v>31.7082</v>
+        <v>37.668</v>
       </c>
       <c r="P3" t="n">
-        <v>6.2025</v>
+        <v>5.904</v>
       </c>
       <c r="Q3" t="n">
-        <v>222.0689</v>
+        <v>232.6533</v>
       </c>
       <c r="R3" t="n">
-        <v>4.6669</v>
+        <v>5.7101</v>
       </c>
       <c r="S3" t="n">
-        <v>64.5908</v>
+        <v>81.35550000000001</v>
       </c>
       <c r="T3" t="n">
-        <v>1965.0211</v>
+        <v>2768.4547</v>
       </c>
       <c r="U3" t="n">
-        <v>520.7899</v>
+        <v>937.349</v>
       </c>
       <c r="V3" t="inlineStr"/>
       <c r="W3" t="n">
-        <v>41.0167</v>
+        <v>44.7123</v>
       </c>
       <c r="X3" t="n">
-        <v>173.7046</v>
+        <v>209.655</v>
       </c>
       <c r="Y3" t="n">
-        <v>275.6419</v>
+        <v>361.2858</v>
       </c>
       <c r="Z3" t="n">
-        <v>4.603</v>
+        <v>8.932399999999999</v>
       </c>
       <c r="AA3" t="n">
-        <v>56.3176</v>
+        <v>97.3439</v>
       </c>
       <c r="AB3" t="n">
-        <v>534.5193</v>
+        <v>802.3153</v>
       </c>
       <c r="AC3" t="n">
-        <v>29.0559</v>
+        <v>33.1468</v>
       </c>
       <c r="AD3" t="n">
-        <v>370.1115</v>
+        <v>578.2395</v>
       </c>
       <c r="AE3" t="n">
-        <v>106.6585</v>
+        <v>139.6815</v>
       </c>
       <c r="AF3" t="n">
-        <v>28.6935</v>
+        <v>51.2476</v>
       </c>
       <c r="AG3" t="n">
-        <v>11.9841</v>
+        <v>13.046</v>
       </c>
       <c r="AH3" t="n">
-        <v>23.6677</v>
+        <v>22.0328</v>
       </c>
       <c r="AI3" t="n">
-        <v>85.09</v>
+        <v>122.7833</v>
       </c>
       <c r="AJ3" t="n">
-        <v>67.6289</v>
+        <v>76.85420000000001</v>
       </c>
       <c r="AK3" t="n">
-        <v>0.7785</v>
+        <v>2.1946</v>
       </c>
       <c r="AL3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>288.30008</v>
+        <v>501.20724</v>
       </c>
       <c r="C4" t="n">
-        <v>30.10294</v>
+        <v>37.23073</v>
       </c>
       <c r="D4" t="n">
-        <v>93.51786</v>
+        <v>112.47774</v>
       </c>
       <c r="E4" t="n">
-        <v>2281.64547</v>
+        <v>3449.76633</v>
       </c>
       <c r="F4" t="n">
-        <v>29.19919</v>
+        <v>108.74196</v>
       </c>
       <c r="G4" t="n">
-        <v>37.66985</v>
-      </c>
-      <c r="H4" t="inlineStr"/>
+        <v>62.48984</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1.46946</v>
+      </c>
       <c r="I4" t="n">
-        <v>530.15129</v>
-      </c>
-      <c r="J4" t="inlineStr"/>
+        <v>998.32021</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.29826</v>
+      </c>
       <c r="K4" t="n">
-        <v>0.98364</v>
+        <v>2.23905</v>
       </c>
       <c r="L4" t="n">
-        <v>1822.41092</v>
+        <v>2899.97172</v>
       </c>
       <c r="M4" t="n">
-        <v>3.13728</v>
+        <v>2.30173</v>
       </c>
       <c r="N4" t="n">
-        <v>496.12421</v>
+        <v>630.06505</v>
       </c>
       <c r="O4" t="n">
-        <v>26.88097</v>
+        <v>41.97926</v>
       </c>
       <c r="P4" t="n">
-        <v>5.72832</v>
+        <v>5.81002</v>
       </c>
       <c r="Q4" t="n">
-        <v>192.09062</v>
+        <v>228.70424</v>
       </c>
       <c r="R4" t="n">
-        <v>5.04302</v>
+        <v>3.53124</v>
       </c>
       <c r="S4" t="n">
-        <v>63.4268</v>
+        <v>73.99507</v>
       </c>
       <c r="T4" t="n">
-        <v>1955.67554</v>
+        <v>2886.06925</v>
       </c>
       <c r="U4" t="n">
-        <v>557.03226</v>
+        <v>1040.29947</v>
       </c>
       <c r="V4" t="inlineStr"/>
       <c r="W4" t="n">
-        <v>37.53922</v>
+        <v>41.68315</v>
       </c>
       <c r="X4" t="n">
-        <v>162.21269</v>
+        <v>166.09276</v>
       </c>
       <c r="Y4" t="n">
-        <v>267.14393</v>
+        <v>321.09037</v>
       </c>
       <c r="Z4" t="n">
-        <v>5.75703</v>
+        <v>10.31453</v>
       </c>
       <c r="AA4" t="n">
-        <v>61.63499</v>
+        <v>102.70167</v>
       </c>
       <c r="AB4" t="n">
-        <v>564.59665</v>
+        <v>886.35527</v>
       </c>
       <c r="AC4" t="n">
-        <v>28.61281</v>
+        <v>36.47633</v>
       </c>
       <c r="AD4" t="n">
-        <v>396.87709</v>
+        <v>642.0630200000001</v>
       </c>
       <c r="AE4" t="n">
-        <v>108.39754</v>
+        <v>153.13256</v>
       </c>
       <c r="AF4" t="n">
-        <v>30.70921</v>
+        <v>54.68336</v>
       </c>
       <c r="AG4" t="n">
-        <v>10.80969</v>
+        <v>12.49295</v>
       </c>
       <c r="AH4" t="n">
-        <v>18.00593</v>
+        <v>22.05116</v>
       </c>
       <c r="AI4" t="n">
-        <v>83.62982</v>
+        <v>118.297</v>
       </c>
       <c r="AJ4" t="n">
-        <v>63.01317</v>
+        <v>81.66886</v>
       </c>
       <c r="AK4" t="n">
-        <v>0.96045</v>
+        <v>2.14215</v>
       </c>
       <c r="AL4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>379.9</v>
+        <v>575.26178</v>
       </c>
       <c r="C5" t="n">
-        <v>36.2</v>
+        <v>30.75939</v>
       </c>
       <c r="D5" t="n">
-        <v>103.8</v>
+        <v>106.35527</v>
       </c>
       <c r="E5" t="n">
-        <v>2813.96526</v>
+        <v>3458.04713</v>
       </c>
       <c r="F5" t="n">
-        <v>37</v>
+        <v>34.46938</v>
       </c>
       <c r="G5" t="n">
-        <v>47.2</v>
-      </c>
-      <c r="H5" t="inlineStr"/>
+        <v>76.49109</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1.07517</v>
+      </c>
       <c r="I5" t="n">
-        <v>697.6</v>
-      </c>
-      <c r="J5" t="inlineStr"/>
+        <v>1141.36782</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1.27995</v>
+      </c>
       <c r="K5" t="n">
-        <v>1.9</v>
+        <v>0.61741</v>
       </c>
       <c r="L5" t="n">
-        <v>2272.4</v>
+        <v>2912.28224</v>
       </c>
       <c r="M5" t="n">
-        <v>3.4</v>
+        <v>1.28755</v>
       </c>
       <c r="N5" t="n">
-        <v>555.3</v>
+        <v>459.00136</v>
       </c>
       <c r="O5" t="n">
-        <v>31.5</v>
+        <v>100.38141</v>
       </c>
       <c r="P5" t="n">
-        <v>5.8</v>
+        <v>3.12255</v>
       </c>
       <c r="Q5" t="n">
-        <v>221.1</v>
+        <v>223.52888</v>
       </c>
       <c r="R5" t="n">
-        <v>4.8</v>
+        <v>3.61977</v>
       </c>
       <c r="S5" t="n">
-        <v>76.40000000000001</v>
+        <v>81.71928</v>
       </c>
       <c r="T5" t="n">
-        <v>2386.9</v>
+        <v>2806.29426</v>
       </c>
       <c r="U5" t="n">
-        <v>729.2</v>
+        <v>1241.74923</v>
       </c>
       <c r="V5" t="inlineStr"/>
       <c r="W5" t="n">
-        <v>42</v>
+        <v>37.35373</v>
       </c>
       <c r="X5" t="n">
-        <v>188</v>
+        <v>158.84285</v>
       </c>
       <c r="Y5" t="n">
-        <v>320.4</v>
+        <v>322.23601</v>
       </c>
       <c r="Z5" t="n">
-        <v>5.3</v>
+        <v>9.96955</v>
       </c>
       <c r="AA5" t="n">
-        <v>85.09999999999999</v>
+        <v>114.78993</v>
       </c>
       <c r="AB5" t="n">
-        <v>737.3</v>
+        <v>973.38329</v>
       </c>
       <c r="AC5" t="n">
-        <v>33</v>
+        <v>25.9819</v>
       </c>
       <c r="AD5" t="n">
-        <v>518.9</v>
+        <v>782.72046</v>
       </c>
       <c r="AE5" t="n">
-        <v>143.2</v>
+        <v>106.97782</v>
       </c>
       <c r="AF5" t="n">
-        <v>42.2</v>
+        <v>57.70311</v>
       </c>
       <c r="AG5" t="n">
-        <v>13.4</v>
+        <v>6.78502</v>
       </c>
       <c r="AH5" t="n">
-        <v>21.8</v>
+        <v>11.47658</v>
       </c>
       <c r="AI5" t="n">
-        <v>103.9</v>
+        <v>124.45272</v>
       </c>
       <c r="AJ5" t="n">
-        <v>74.59999999999999</v>
+        <v>60.96466</v>
       </c>
       <c r="AK5" t="n">
-        <v>2.3</v>
+        <v>1.75751</v>
       </c>
       <c r="AL5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>440.8539</v>
+        <v>615.14219</v>
       </c>
       <c r="C6" t="n">
-        <v>35.2311</v>
+        <v>23.40342</v>
       </c>
       <c r="D6" t="n">
-        <v>109.2423</v>
+        <v>96.76617</v>
       </c>
       <c r="E6" t="n">
-        <v>3265.4855</v>
+        <v>3486.3</v>
       </c>
       <c r="F6" t="n">
-        <v>94.4704</v>
+        <v>29.76123</v>
       </c>
       <c r="G6" t="n">
-        <v>56.177</v>
+        <v>71.8</v>
       </c>
       <c r="H6" t="n">
-        <v>1.1143</v>
+        <v>5.20324</v>
       </c>
       <c r="I6" t="n">
-        <v>899.681</v>
+        <v>1208</v>
       </c>
       <c r="J6" t="n">
-        <v>0.6422</v>
+        <v>0.34998</v>
       </c>
       <c r="K6" t="n">
-        <v>2.355</v>
+        <v>0.50092</v>
       </c>
       <c r="L6" t="n">
-        <v>2671.5464</v>
+        <v>2944.3</v>
       </c>
       <c r="M6" t="n">
-        <v>2.5925</v>
+        <v>1.17697</v>
       </c>
       <c r="N6" t="n">
-        <v>602.6953</v>
+        <v>412.17141</v>
       </c>
       <c r="O6" t="n">
-        <v>37.668</v>
+        <v>108.28679</v>
       </c>
       <c r="P6" t="n">
-        <v>5.904</v>
+        <v>2.97328</v>
       </c>
       <c r="Q6" t="n">
-        <v>232.6533</v>
+        <v>202.06804</v>
       </c>
       <c r="R6" t="n">
-        <v>5.7101</v>
+        <v>4.85175</v>
       </c>
       <c r="S6" t="n">
-        <v>81.35550000000001</v>
+        <v>71.84345999999999</v>
       </c>
       <c r="T6" t="n">
-        <v>2768.4547</v>
+        <v>2799.3</v>
       </c>
       <c r="U6" t="n">
-        <v>937.349</v>
+        <v>1316.3</v>
       </c>
       <c r="V6" t="inlineStr"/>
       <c r="W6" t="n">
-        <v>44.7123</v>
+        <v>51.32245</v>
       </c>
       <c r="X6" t="n">
-        <v>209.655</v>
+        <v>148.1246</v>
       </c>
       <c r="Y6" t="n">
-        <v>361.2858</v>
+        <v>339.91594</v>
       </c>
       <c r="Z6" t="n">
-        <v>8.932399999999999</v>
+        <v>11.12541</v>
       </c>
       <c r="AA6" t="n">
-        <v>97.3439</v>
+        <v>128.9935</v>
       </c>
       <c r="AB6" t="n">
-        <v>802.3153</v>
+        <v>996.47716</v>
       </c>
       <c r="AC6" t="n">
-        <v>33.1468</v>
+        <v>24.27509</v>
       </c>
       <c r="AD6" t="n">
-        <v>578.2395</v>
+        <v>813.87538</v>
       </c>
       <c r="AE6" t="n">
-        <v>139.6815</v>
+        <v>103.92166</v>
       </c>
       <c r="AF6" t="n">
-        <v>51.2476</v>
+        <v>54.40503</v>
       </c>
       <c r="AG6" t="n">
-        <v>13.046</v>
+        <v>5.47734</v>
       </c>
       <c r="AH6" t="n">
-        <v>22.0328</v>
+        <v>10.01063</v>
       </c>
       <c r="AI6" t="n">
-        <v>122.7833</v>
+        <v>121.10519</v>
       </c>
       <c r="AJ6" t="n">
-        <v>76.85420000000001</v>
+        <v>53.01115</v>
       </c>
       <c r="AK6" t="n">
-        <v>2.1946</v>
+        <v>0.82617</v>
       </c>
       <c r="AL6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2012年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>501.20724</v>
+        <v>644.1498</v>
       </c>
       <c r="C7" t="n">
-        <v>37.23073</v>
+        <v>22.5412</v>
       </c>
       <c r="D7" t="n">
-        <v>112.47774</v>
+        <v>96.7238</v>
       </c>
       <c r="E7" t="n">
-        <v>3449.76633</v>
+        <v>3602.2137</v>
       </c>
       <c r="F7" t="n">
-        <v>108.74196</v>
+        <v>28.5352</v>
       </c>
       <c r="G7" t="n">
-        <v>62.48984</v>
+        <v>81.2791</v>
       </c>
       <c r="H7" t="n">
-        <v>1.46946</v>
+        <v>6.9737</v>
       </c>
       <c r="I7" t="n">
-        <v>998.32021</v>
+        <v>1281.4385</v>
       </c>
       <c r="J7" t="n">
-        <v>0.29826</v>
+        <v>5.8098</v>
       </c>
       <c r="K7" t="n">
-        <v>2.23905</v>
+        <v>0.592</v>
       </c>
       <c r="L7" t="n">
-        <v>2899.97172</v>
+        <v>3060.0986</v>
       </c>
       <c r="M7" t="n">
-        <v>2.30173</v>
+        <v>0.7048</v>
       </c>
       <c r="N7" t="n">
-        <v>630.06505</v>
+        <v>405.1975</v>
       </c>
       <c r="O7" t="n">
-        <v>41.97926</v>
+        <v>116.7324</v>
       </c>
       <c r="P7" t="n">
-        <v>5.81002</v>
+        <v>3.9018</v>
       </c>
       <c r="Q7" t="n">
-        <v>228.70424</v>
+        <v>197.3766</v>
       </c>
       <c r="R7" t="n">
-        <v>3.53124</v>
+        <v>5.1041</v>
       </c>
       <c r="S7" t="n">
-        <v>73.99507</v>
+        <v>66.0343</v>
       </c>
       <c r="T7" t="n">
-        <v>2886.06925</v>
+        <v>2876.7852</v>
       </c>
       <c r="U7" t="n">
-        <v>1040.29947</v>
+        <v>1398.1704</v>
       </c>
       <c r="V7" t="inlineStr"/>
       <c r="W7" t="n">
-        <v>41.68315</v>
+        <v>43.9423</v>
       </c>
       <c r="X7" t="n">
-        <v>166.09276</v>
+        <v>150.4799</v>
       </c>
       <c r="Y7" t="n">
-        <v>321.09037</v>
+        <v>344.7387</v>
       </c>
       <c r="Z7" t="n">
-        <v>10.31453</v>
+        <v>8.0685</v>
       </c>
       <c r="AA7" t="n">
-        <v>102.70167</v>
+        <v>136.4383</v>
       </c>
       <c r="AB7" t="n">
-        <v>886.35527</v>
+        <v>1044.7655</v>
       </c>
       <c r="AC7" t="n">
-        <v>36.47633</v>
+        <v>25.1254</v>
       </c>
       <c r="AD7" t="n">
-        <v>642.0630200000001</v>
+        <v>862.0595</v>
       </c>
       <c r="AE7" t="n">
-        <v>153.13256</v>
+        <v>101.5289</v>
       </c>
       <c r="AF7" t="n">
-        <v>54.68336</v>
+        <v>56.0515</v>
       </c>
       <c r="AG7" t="n">
-        <v>12.49295</v>
+        <v>5.7573</v>
       </c>
       <c r="AH7" t="n">
-        <v>22.05116</v>
+        <v>10.0756</v>
       </c>
       <c r="AI7" t="n">
-        <v>118.297</v>
+        <v>119.2551</v>
       </c>
       <c r="AJ7" t="n">
-        <v>81.66886</v>
+        <v>48.3435</v>
       </c>
       <c r="AK7" t="n">
-        <v>2.14215</v>
+        <v>0.5587</v>
       </c>
       <c r="AL7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2013年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>575.26178</v>
+        <v>701.7855</v>
       </c>
       <c r="C8" t="n">
-        <v>30.75939</v>
+        <v>27.8573</v>
       </c>
       <c r="D8" t="n">
-        <v>106.35527</v>
+        <v>84.14400000000001</v>
       </c>
       <c r="E8" t="n">
-        <v>3458.04713</v>
+        <v>3693.6967</v>
       </c>
       <c r="F8" t="n">
-        <v>34.46938</v>
+        <v>21.9259</v>
       </c>
       <c r="G8" t="n">
-        <v>76.49109</v>
+        <v>82.5257</v>
       </c>
       <c r="H8" t="n">
-        <v>1.07517</v>
+        <v>6.7039</v>
       </c>
       <c r="I8" t="n">
-        <v>1141.36782</v>
+        <v>1350.7017</v>
       </c>
       <c r="J8" t="n">
-        <v>1.27995</v>
+        <v>4.6762</v>
       </c>
       <c r="K8" t="n">
-        <v>0.61741</v>
+        <v>0.4225</v>
       </c>
       <c r="L8" t="n">
-        <v>2912.28224</v>
+        <v>3154.5499</v>
       </c>
       <c r="M8" t="n">
-        <v>1.28755</v>
+        <v>0.7266</v>
       </c>
       <c r="N8" t="n">
-        <v>459.00136</v>
+        <v>379.049</v>
       </c>
       <c r="O8" t="n">
-        <v>100.38141</v>
+        <v>133.1423</v>
       </c>
       <c r="P8" t="n">
-        <v>3.12255</v>
+        <v>2.4916</v>
       </c>
       <c r="Q8" t="n">
-        <v>223.52888</v>
+        <v>187.8936</v>
       </c>
       <c r="R8" t="n">
-        <v>3.61977</v>
+        <v>4.8732</v>
       </c>
       <c r="S8" t="n">
-        <v>81.71928</v>
+        <v>64.31529999999999</v>
       </c>
       <c r="T8" t="n">
-        <v>2806.29426</v>
+        <v>2909.386</v>
       </c>
       <c r="U8" t="n">
-        <v>1241.74923</v>
+        <v>1483.8442</v>
       </c>
       <c r="V8" t="inlineStr"/>
       <c r="W8" t="n">
-        <v>37.35373</v>
+        <v>42.7729</v>
       </c>
       <c r="X8" t="n">
-        <v>158.84285</v>
+        <v>148.5845</v>
       </c>
       <c r="Y8" t="n">
-        <v>322.23601</v>
+        <v>351.2536</v>
       </c>
       <c r="Z8" t="n">
-        <v>9.96955</v>
+        <v>10.0174</v>
       </c>
       <c r="AA8" t="n">
-        <v>114.78993</v>
+        <v>145.2026</v>
       </c>
       <c r="AB8" t="n">
-        <v>973.38329</v>
+        <v>1089.7772</v>
       </c>
       <c r="AC8" t="n">
-        <v>25.9819</v>
+        <v>25.3715</v>
       </c>
       <c r="AD8" t="n">
-        <v>782.72046</v>
+        <v>912.1874</v>
       </c>
       <c r="AE8" t="n">
-        <v>106.97782</v>
+        <v>96.3347</v>
       </c>
       <c r="AF8" t="n">
-        <v>57.70311</v>
+        <v>55.8841</v>
       </c>
       <c r="AG8" t="n">
-        <v>6.78502</v>
+        <v>4.2239</v>
       </c>
       <c r="AH8" t="n">
-        <v>11.47658</v>
+        <v>8.954700000000001</v>
       </c>
       <c r="AI8" t="n">
-        <v>124.45272</v>
+        <v>121.9135</v>
       </c>
       <c r="AJ8" t="n">
-        <v>60.96466</v>
+        <v>44.862</v>
       </c>
       <c r="AK8" t="n">
-        <v>1.75751</v>
+        <v>0.583</v>
       </c>
       <c r="AL8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2014年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>615.14219</v>
+        <v>751.919</v>
       </c>
       <c r="C9" t="n">
-        <v>23.40342</v>
+        <v>31.348</v>
       </c>
       <c r="D9" t="n">
-        <v>96.76617</v>
+        <v>78.541</v>
       </c>
       <c r="E9" t="n">
-        <v>3486.3</v>
+        <v>3731.5323</v>
       </c>
       <c r="F9" t="n">
-        <v>29.76123</v>
+        <v>15.098</v>
       </c>
       <c r="G9" t="n">
-        <v>71.8</v>
+        <v>85.91</v>
       </c>
       <c r="H9" t="n">
-        <v>5.20324</v>
+        <v>8.391999999999999</v>
       </c>
       <c r="I9" t="n">
-        <v>1208</v>
+        <v>1374.814</v>
       </c>
       <c r="J9" t="n">
-        <v>0.34998</v>
+        <v>2.918</v>
       </c>
       <c r="K9" t="n">
-        <v>0.50092</v>
+        <v>0.413</v>
       </c>
       <c r="L9" t="n">
-        <v>2944.3</v>
+        <v>3208.9158</v>
       </c>
       <c r="M9" t="n">
-        <v>1.17697</v>
+        <v>0.619</v>
       </c>
       <c r="N9" t="n">
-        <v>412.17141</v>
+        <v>337.053</v>
       </c>
       <c r="O9" t="n">
-        <v>108.28679</v>
+        <v>144.926</v>
       </c>
       <c r="P9" t="n">
-        <v>2.97328</v>
+        <v>2.081</v>
       </c>
       <c r="Q9" t="n">
-        <v>202.06804</v>
+        <v>182.898</v>
       </c>
       <c r="R9" t="n">
-        <v>4.85175</v>
+        <v>3.209</v>
       </c>
       <c r="S9" t="n">
-        <v>71.84345999999999</v>
+        <v>61.407</v>
       </c>
       <c r="T9" t="n">
-        <v>2799.3</v>
+        <v>2893.67</v>
       </c>
       <c r="U9" t="n">
-        <v>1316.3</v>
+        <v>1519.74</v>
       </c>
       <c r="V9" t="inlineStr"/>
       <c r="W9" t="n">
-        <v>51.32245</v>
+        <v>37.177</v>
       </c>
       <c r="X9" t="n">
-        <v>148.1246</v>
+        <v>140.119</v>
       </c>
       <c r="Y9" t="n">
-        <v>339.91594</v>
+        <v>339.718</v>
       </c>
       <c r="Z9" t="n">
-        <v>11.12541</v>
+        <v>9.911</v>
       </c>
       <c r="AA9" t="n">
-        <v>128.9935</v>
+        <v>149.594</v>
       </c>
       <c r="AB9" t="n">
-        <v>996.47716</v>
+        <v>1173.2298</v>
       </c>
       <c r="AC9" t="n">
-        <v>24.27509</v>
+        <v>22.479</v>
       </c>
       <c r="AD9" t="n">
-        <v>813.87538</v>
+        <v>1016.888</v>
       </c>
       <c r="AE9" t="n">
-        <v>103.92166</v>
+        <v>81.105</v>
       </c>
       <c r="AF9" t="n">
-        <v>54.40503</v>
+        <v>52.7589</v>
       </c>
       <c r="AG9" t="n">
-        <v>5.47734</v>
+        <v>3.564</v>
       </c>
       <c r="AH9" t="n">
-        <v>10.01063</v>
+        <v>7.356</v>
       </c>
       <c r="AI9" t="n">
-        <v>121.10519</v>
+        <v>115.263</v>
       </c>
       <c r="AJ9" t="n">
-        <v>53.01115</v>
+        <v>37.614</v>
       </c>
       <c r="AK9" t="n">
-        <v>0.82617</v>
+        <v>0.45</v>
       </c>
       <c r="AL9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2015年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>644.1498</v>
+        <v>786</v>
       </c>
       <c r="C10" t="n">
-        <v>22.5412</v>
+        <v>27.5</v>
       </c>
       <c r="D10" t="n">
-        <v>96.7238</v>
+        <v>82.59999999999999</v>
       </c>
       <c r="E10" t="n">
-        <v>3602.2137</v>
+        <v>3878.4</v>
       </c>
       <c r="F10" t="n">
-        <v>28.5352</v>
+        <v>1.8</v>
       </c>
       <c r="G10" t="n">
-        <v>81.2791</v>
+        <v>74.7</v>
       </c>
       <c r="H10" t="n">
-        <v>6.9737</v>
+        <v>7.7</v>
       </c>
       <c r="I10" t="n">
-        <v>1281.4385</v>
+        <v>1365.5</v>
       </c>
       <c r="J10" t="n">
-        <v>5.8098</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0.592</v>
-      </c>
+        <v>1.9</v>
+      </c>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
-        <v>3060.0986</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0.7048</v>
-      </c>
+        <v>3351.2</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
       <c r="N10" t="n">
-        <v>405.1975</v>
+        <v>289.4</v>
       </c>
       <c r="O10" t="n">
-        <v>116.7324</v>
+        <v>160.6</v>
       </c>
       <c r="P10" t="n">
-        <v>3.9018</v>
+        <v>2.8</v>
       </c>
       <c r="Q10" t="n">
-        <v>197.3766</v>
+        <v>185.6</v>
       </c>
       <c r="R10" t="n">
-        <v>5.1041</v>
+        <v>3.5</v>
       </c>
       <c r="S10" t="n">
-        <v>66.0343</v>
+        <v>64.3</v>
       </c>
       <c r="T10" t="n">
-        <v>2876.7852</v>
+        <v>3010.6</v>
       </c>
       <c r="U10" t="n">
-        <v>1398.1704</v>
-      </c>
-      <c r="V10" t="inlineStr"/>
+        <v>1526.1</v>
+      </c>
+      <c r="V10" t="n">
+        <v>6.8</v>
+      </c>
       <c r="W10" t="n">
-        <v>43.9423</v>
+        <v>39.3</v>
       </c>
       <c r="X10" t="n">
-        <v>150.4799</v>
+        <v>139</v>
       </c>
       <c r="Y10" t="n">
-        <v>344.7387</v>
+        <v>341.6</v>
       </c>
       <c r="Z10" t="n">
-        <v>8.0685</v>
+        <v>7.3</v>
       </c>
       <c r="AA10" t="n">
-        <v>136.4383</v>
+        <v>154.2</v>
       </c>
       <c r="AB10" t="n">
-        <v>1044.7655</v>
+        <v>1339.9</v>
       </c>
       <c r="AC10" t="n">
-        <v>25.1254</v>
+        <v>18.6</v>
       </c>
       <c r="AD10" t="n">
-        <v>862.0595</v>
+        <v>1214.8</v>
       </c>
       <c r="AE10" t="n">
-        <v>101.5289</v>
+        <v>70.5</v>
       </c>
       <c r="AF10" t="n">
-        <v>56.0515</v>
+        <v>36</v>
       </c>
       <c r="AG10" t="n">
-        <v>5.7573</v>
+        <v>4.2</v>
       </c>
       <c r="AH10" t="n">
-        <v>10.0756</v>
+        <v>6.6</v>
       </c>
       <c r="AI10" t="n">
-        <v>119.2551</v>
+        <v>150.3</v>
       </c>
       <c r="AJ10" t="n">
-        <v>48.3435</v>
+        <v>32.9</v>
       </c>
       <c r="AK10" t="n">
-        <v>0.5587</v>
-      </c>
-      <c r="AL10" t="inlineStr"/>
+        <v>0.3</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2016年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>701.7855</v>
+        <v>1012.6403</v>
       </c>
       <c r="C11" t="n">
-        <v>27.8573</v>
+        <v>26.025</v>
       </c>
       <c r="D11" t="n">
-        <v>84.14400000000001</v>
+        <v>80.3229</v>
       </c>
       <c r="E11" t="n">
-        <v>3693.6967</v>
+        <v>4257.7198</v>
       </c>
       <c r="F11" t="n">
-        <v>21.9259</v>
+        <v>0.4038</v>
       </c>
       <c r="G11" t="n">
-        <v>82.5257</v>
+        <v>107.0694</v>
       </c>
       <c r="H11" t="n">
-        <v>6.7039</v>
+        <v>2.8042</v>
       </c>
       <c r="I11" t="n">
-        <v>1350.7017</v>
+        <v>1384.7585</v>
       </c>
       <c r="J11" t="n">
-        <v>4.6762</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0.4225</v>
-      </c>
+        <v>1.543</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
-        <v>3154.5499</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0.7266</v>
-      </c>
+        <v>3708.1951</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
       <c r="N11" t="n">
-        <v>379.049</v>
+        <v>294.4559</v>
       </c>
       <c r="O11" t="n">
-        <v>133.1423</v>
+        <v>181.9219</v>
       </c>
       <c r="P11" t="n">
-        <v>2.4916</v>
+        <v>2.2238</v>
       </c>
       <c r="Q11" t="n">
-        <v>187.8936</v>
+        <v>207.0961</v>
       </c>
       <c r="R11" t="n">
-        <v>4.8732</v>
+        <v>17.8546</v>
       </c>
       <c r="S11" t="n">
-        <v>64.31529999999999</v>
+        <v>80.0896</v>
       </c>
       <c r="T11" t="n">
-        <v>2909.386</v>
+        <v>3126.9706</v>
       </c>
       <c r="U11" t="n">
-        <v>1483.8442</v>
-      </c>
-      <c r="V11" t="inlineStr"/>
+        <v>1566.6805</v>
+      </c>
+      <c r="V11" t="n">
+        <v>10.021</v>
+      </c>
       <c r="W11" t="n">
-        <v>42.7729</v>
+        <v>29.26</v>
       </c>
       <c r="X11" t="n">
-        <v>148.5845</v>
+        <v>140.9815</v>
       </c>
       <c r="Y11" t="n">
-        <v>351.2536</v>
+        <v>342.4288</v>
       </c>
       <c r="Z11" t="n">
-        <v>10.0174</v>
+        <v>4.0702</v>
       </c>
       <c r="AA11" t="n">
-        <v>145.2026</v>
+        <v>166.5744</v>
       </c>
       <c r="AB11" t="n">
-        <v>1089.7772</v>
+        <v>1659.1475</v>
       </c>
       <c r="AC11" t="n">
-        <v>25.3715</v>
+        <v>19.8365</v>
       </c>
       <c r="AD11" t="n">
-        <v>912.1874</v>
+        <v>1484.2919</v>
       </c>
       <c r="AE11" t="n">
-        <v>96.3347</v>
+        <v>73.8184</v>
       </c>
       <c r="AF11" t="n">
-        <v>55.8841</v>
+        <v>81.2004</v>
       </c>
       <c r="AG11" t="n">
-        <v>4.2239</v>
+        <v>3.3349</v>
       </c>
       <c r="AH11" t="n">
-        <v>8.954700000000001</v>
+        <v>6.8261</v>
       </c>
       <c r="AI11" t="n">
-        <v>121.9135</v>
+        <v>145.3239</v>
       </c>
       <c r="AJ11" t="n">
-        <v>44.862</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>0.583</v>
-      </c>
-      <c r="AL11" t="inlineStr"/>
+        <v>32.0228</v>
+      </c>
+      <c r="AK11" t="inlineStr"/>
+      <c r="AL11" t="n">
+        <v>1.0187</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2017年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>751.919</v>
+        <v>874.7945</v>
       </c>
       <c r="C12" t="n">
-        <v>31.348</v>
+        <v>13.4441</v>
       </c>
       <c r="D12" t="n">
-        <v>78.541</v>
+        <v>53.6407</v>
       </c>
       <c r="E12" t="n">
-        <v>3731.5323</v>
+        <v>3292.5788</v>
       </c>
       <c r="F12" t="n">
-        <v>15.098</v>
+        <v>1.1227</v>
       </c>
       <c r="G12" t="n">
-        <v>85.91</v>
+        <v>87.63509999999999</v>
       </c>
       <c r="H12" t="n">
-        <v>8.391999999999999</v>
+        <v>1.5172</v>
       </c>
       <c r="I12" t="n">
-        <v>1374.814</v>
+        <v>908.6576</v>
       </c>
       <c r="J12" t="n">
-        <v>2.918</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0.413</v>
-      </c>
+        <v>0.8159</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
-        <v>3208.9158</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0.619</v>
-      </c>
+        <v>2929.0539</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
       <c r="N12" t="n">
-        <v>337.053</v>
+        <v>227.5939</v>
       </c>
       <c r="O12" t="n">
-        <v>144.926</v>
-      </c>
-      <c r="P12" t="n">
-        <v>2.081</v>
-      </c>
+        <v>146.8103</v>
+      </c>
+      <c r="P12" t="inlineStr"/>
       <c r="Q12" t="n">
-        <v>182.898</v>
+        <v>131.6825</v>
       </c>
       <c r="R12" t="n">
-        <v>3.209</v>
+        <v>2.9549</v>
       </c>
       <c r="S12" t="n">
-        <v>61.407</v>
+        <v>60.1259</v>
       </c>
       <c r="T12" t="n">
-        <v>2893.67</v>
+        <v>2318.6621</v>
       </c>
       <c r="U12" t="n">
-        <v>1519.74</v>
-      </c>
-      <c r="V12" t="inlineStr"/>
+        <v>1055.4674</v>
+      </c>
+      <c r="V12" t="n">
+        <v>10.2349</v>
+      </c>
       <c r="W12" t="n">
-        <v>37.177</v>
+        <v>17.0312</v>
       </c>
       <c r="X12" t="n">
-        <v>140.119</v>
+        <v>88.4228</v>
       </c>
       <c r="Y12" t="n">
-        <v>339.718</v>
+        <v>231.8431</v>
       </c>
       <c r="Z12" t="n">
-        <v>9.911</v>
+        <v>2.3188</v>
       </c>
       <c r="AA12" t="n">
-        <v>149.594</v>
+        <v>123.2541</v>
       </c>
       <c r="AB12" t="n">
-        <v>1173.2298</v>
+        <v>1544.0016</v>
       </c>
       <c r="AC12" t="n">
-        <v>22.479</v>
+        <v>15.8771</v>
       </c>
       <c r="AD12" t="n">
-        <v>1016.888</v>
+        <v>1430.4304</v>
       </c>
       <c r="AE12" t="n">
-        <v>81.105</v>
+        <v>77.6353</v>
       </c>
       <c r="AF12" t="n">
-        <v>52.7589</v>
+        <v>20.059</v>
       </c>
       <c r="AG12" t="n">
-        <v>3.564</v>
+        <v>3.9541</v>
       </c>
       <c r="AH12" t="n">
-        <v>7.356</v>
+        <v>6.867</v>
       </c>
       <c r="AI12" t="n">
-        <v>115.263</v>
+        <v>68.88249999999999</v>
       </c>
       <c r="AJ12" t="n">
-        <v>37.614</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="AL12" t="inlineStr"/>
+        <v>21.1648</v>
+      </c>
+      <c r="AK12" t="inlineStr"/>
+      <c r="AL12" t="n">
+        <v>1.2521</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2018年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>786</v>
+        <v>1091.199</v>
       </c>
       <c r="C13" t="n">
-        <v>27.5</v>
+        <v>20.7974</v>
       </c>
       <c r="D13" t="n">
-        <v>82.59999999999999</v>
+        <v>59.5164</v>
       </c>
       <c r="E13" t="n">
-        <v>3878.4</v>
+        <v>3978.2234</v>
       </c>
       <c r="F13" t="n">
-        <v>1.8</v>
+        <v>0.5741000000000001</v>
       </c>
       <c r="G13" t="n">
-        <v>74.7</v>
+        <v>106.018</v>
       </c>
       <c r="H13" t="n">
-        <v>7.7</v>
+        <v>2.8506</v>
       </c>
       <c r="I13" t="n">
-        <v>1365.5</v>
+        <v>1073.7355</v>
       </c>
       <c r="J13" t="n">
-        <v>1.9</v>
+        <v>1.9929</v>
       </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
-        <v>3351.2</v>
+        <v>3540.3695</v>
       </c>
       <c r="M13" t="inlineStr"/>
       <c r="N13" t="n">
-        <v>289.4</v>
+        <v>226.6991</v>
       </c>
       <c r="O13" t="n">
-        <v>160.6</v>
-      </c>
-      <c r="P13" t="n">
-        <v>2.8</v>
-      </c>
+        <v>187.9525</v>
+      </c>
+      <c r="P13" t="inlineStr"/>
       <c r="Q13" t="n">
-        <v>185.6</v>
+        <v>166.77</v>
       </c>
       <c r="R13" t="n">
-        <v>3.5</v>
+        <v>2.6174</v>
       </c>
       <c r="S13" t="n">
-        <v>64.3</v>
+        <v>80.98820000000001</v>
       </c>
       <c r="T13" t="n">
-        <v>3010.6</v>
+        <v>2762.8788</v>
       </c>
       <c r="U13" t="n">
-        <v>1526.1</v>
+        <v>1261.688</v>
       </c>
       <c r="V13" t="n">
-        <v>6.8</v>
+        <v>16.4416</v>
       </c>
       <c r="W13" t="n">
-        <v>39.3</v>
+        <v>20.3881</v>
       </c>
       <c r="X13" t="n">
-        <v>139</v>
+        <v>102.876</v>
       </c>
       <c r="Y13" t="n">
-        <v>341.6</v>
+        <v>271.0839</v>
       </c>
       <c r="Z13" t="n">
-        <v>7.3</v>
+        <v>9.4245</v>
       </c>
       <c r="AA13" t="n">
-        <v>154.2</v>
+        <v>136.4025</v>
       </c>
       <c r="AB13" t="n">
-        <v>1339.9</v>
+        <v>1959.2653</v>
       </c>
       <c r="AC13" t="n">
-        <v>18.6</v>
+        <v>18.2707</v>
       </c>
       <c r="AD13" t="n">
-        <v>1214.8</v>
+        <v>1821.9182</v>
       </c>
       <c r="AE13" t="n">
-        <v>70.5</v>
+        <v>93.5973</v>
       </c>
       <c r="AF13" t="n">
-        <v>36</v>
+        <v>25.4791</v>
       </c>
       <c r="AG13" t="n">
-        <v>4.2</v>
+        <v>2.3946</v>
       </c>
       <c r="AH13" t="n">
-        <v>6.6</v>
+        <v>6.6694</v>
       </c>
       <c r="AI13" t="n">
-        <v>150.3</v>
+        <v>61.1566</v>
       </c>
       <c r="AJ13" t="n">
-        <v>32.9</v>
-      </c>
-      <c r="AK13" t="n">
-        <v>0.3</v>
-      </c>
+        <v>21.9224</v>
+      </c>
+      <c r="AK13" t="inlineStr"/>
       <c r="AL13" t="n">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>1012.6403</v>
-      </c>
-      <c r="C14" t="n">
-        <v>26.025</v>
-      </c>
-      <c r="D14" t="n">
-        <v>80.3229</v>
-      </c>
-      <c r="E14" t="n">
-        <v>4257.7198</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0.4038</v>
-      </c>
-      <c r="G14" t="n">
-        <v>107.0694</v>
-      </c>
-      <c r="H14" t="n">
-        <v>2.8042</v>
-      </c>
-      <c r="I14" t="n">
-        <v>1384.7585</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1.543</v>
-      </c>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>3708.1951</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="n">
-        <v>294.4559</v>
-      </c>
-      <c r="O14" t="n">
-        <v>181.9219</v>
-      </c>
-      <c r="P14" t="n">
-        <v>2.2238</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>207.0961</v>
-      </c>
-      <c r="R14" t="n">
-        <v>17.8546</v>
-      </c>
-      <c r="S14" t="n">
-        <v>80.0896</v>
-      </c>
-      <c r="T14" t="n">
-        <v>3126.9706</v>
-      </c>
-      <c r="U14" t="n">
-        <v>1566.6805</v>
-      </c>
-      <c r="V14" t="n">
-        <v>10.021</v>
-      </c>
-      <c r="W14" t="n">
-        <v>29.26</v>
-      </c>
-      <c r="X14" t="n">
-        <v>140.9815</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>342.4288</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>4.0702</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>166.5744</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>1659.1475</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>19.8365</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>1484.2919</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>73.8184</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>81.2004</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>3.3349</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>6.8261</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>145.3239</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>32.0228</v>
-      </c>
-      <c r="AK14" t="inlineStr"/>
-      <c r="AL14" t="n">
-        <v>1.0187</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>874.7945</v>
-      </c>
-      <c r="C15" t="n">
-        <v>13.4441</v>
-      </c>
-      <c r="D15" t="n">
-        <v>53.6407</v>
-      </c>
-      <c r="E15" t="n">
-        <v>3292.5788</v>
-      </c>
-      <c r="F15" t="n">
-        <v>1.1227</v>
-      </c>
-      <c r="G15" t="n">
-        <v>87.63509999999999</v>
-      </c>
-      <c r="H15" t="n">
-        <v>1.5172</v>
-      </c>
-      <c r="I15" t="n">
-        <v>908.6576</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0.8159</v>
-      </c>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>2929.0539</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="n">
-        <v>227.5939</v>
-      </c>
-      <c r="O15" t="n">
-        <v>146.8103</v>
-      </c>
-      <c r="P15" t="inlineStr"/>
-      <c r="Q15" t="n">
-        <v>131.6825</v>
-      </c>
-      <c r="R15" t="n">
-        <v>2.9549</v>
-      </c>
-      <c r="S15" t="n">
-        <v>60.1259</v>
-      </c>
-      <c r="T15" t="n">
-        <v>2318.6621</v>
-      </c>
-      <c r="U15" t="n">
-        <v>1055.4674</v>
-      </c>
-      <c r="V15" t="n">
-        <v>10.2349</v>
-      </c>
-      <c r="W15" t="n">
-        <v>17.0312</v>
-      </c>
-      <c r="X15" t="n">
-        <v>88.4228</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>231.8431</v>
-      </c>
-      <c r="Z15" t="n">
-        <v>2.3188</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>123.2541</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>1544.0016</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>15.8771</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>1430.4304</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>77.6353</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>20.059</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>3.9541</v>
-      </c>
-      <c r="AH15" t="n">
-        <v>6.867</v>
-      </c>
-      <c r="AI15" t="n">
-        <v>68.88249999999999</v>
-      </c>
-      <c r="AJ15" t="n">
-        <v>21.1648</v>
-      </c>
-      <c r="AK15" t="inlineStr"/>
-      <c r="AL15" t="n">
-        <v>1.2521</v>
+        <v>1.6862</v>
       </c>
     </row>
   </sheetData>
